--- a/output_data/charts/0700000US390496297499999.xlsx
+++ b/output_data/charts/0700000US390496297499999.xlsx
@@ -141,11 +141,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100"/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -202,34 +214,34 @@
                   <c:v>3.352017728449319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.326614767284898</c:v>
+                  <c:v>3.581797000684185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.280055347607812</c:v>
+                  <c:v>3.370527398839829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.608743469892769</c:v>
+                  <c:v>3.6903698102832</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.89591004080008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.124584404993414</c:v>
+                  <c:v>4.234364218054075</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.059201898457504</c:v>
+                  <c:v>4.035002810216699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.913282842561042</c:v>
+                  <c:v>3.838885830345053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.759252333760051</c:v>
+                  <c:v>4.746630611452324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.359206002310723</c:v>
+                  <c:v>5.220005846406549</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.550879554482231</c:v>
+                  <c:v>5.727331512200271</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.459361674634966</c:v>
@@ -255,7 +267,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -270,7 +284,7 @@
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6.105967509930455"/>
+          <c:max val="7"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -282,7 +296,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -292,6 +308,37 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="42857">
+              <a:srgbClr val="80C080"/>
+            </a:gs>
+            <a:gs pos="42857">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="57142">
+              <a:srgbClr val="FFFF80"/>
+            </a:gs>
+            <a:gs pos="57142">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="71428">
+              <a:srgbClr val="FFD280"/>
+            </a:gs>
+            <a:gs pos="71428">
+              <a:srgbClr val="FF8080"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FF8080"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -313,10 +360,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -653,7 +700,7 @@
         <v>2013</v>
       </c>
       <c r="B3" s="1">
-        <v>3.326614767284898</v>
+        <v>3.581797000684185</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -661,7 +708,7 @@
         <v>2014</v>
       </c>
       <c r="B4" s="1">
-        <v>3.280055347607812</v>
+        <v>3.370527398839829</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -669,7 +716,7 @@
         <v>2015</v>
       </c>
       <c r="B5" s="1">
-        <v>3.608743469892769</v>
+        <v>3.6903698102832</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +732,7 @@
         <v>2017</v>
       </c>
       <c r="B7" s="1">
-        <v>4.124584404993414</v>
+        <v>4.234364218054075</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -693,7 +740,7 @@
         <v>2018</v>
       </c>
       <c r="B8" s="1">
-        <v>4.059201898457504</v>
+        <v>4.035002810216699</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -701,7 +748,7 @@
         <v>2019</v>
       </c>
       <c r="B9" s="1">
-        <v>3.913282842561042</v>
+        <v>3.838885830345053</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -709,7 +756,7 @@
         <v>2020</v>
       </c>
       <c r="B10" s="1">
-        <v>4.759252333760051</v>
+        <v>4.746630611452324</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -717,7 +764,7 @@
         <v>2021</v>
       </c>
       <c r="B11" s="1">
-        <v>5.359206002310723</v>
+        <v>5.220005846406549</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -725,7 +772,7 @@
         <v>2022</v>
       </c>
       <c r="B12" s="1">
-        <v>5.550879554482231</v>
+        <v>5.727331512200271</v>
       </c>
     </row>
     <row r="13" spans="1:2">
